--- a/2017年每月提成表/9月份提成表.xlsx
+++ b/2017年每月提成表/9月份提成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,22 @@
   </si>
   <si>
     <t>门店销售金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300元销售数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -830,53 +846,53 @@
     <xf numFmtId="7" fontId="5" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1217,39 +1233,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1299,7 @@
       <c r="N2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="40" t="s">
         <v>71</v>
       </c>
       <c r="P2" s="8" t="s">
@@ -1312,7 +1328,7 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="10">
@@ -1380,7 +1396,7 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1462,7 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1528,7 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1582,7 +1598,7 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1668,7 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1740,7 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1808,7 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1876,7 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1926,7 +1942,7 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
@@ -1992,7 +2008,7 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2074,7 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2140,7 @@
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2206,7 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +2272,7 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +2338,7 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2404,7 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
@@ -2454,7 +2470,7 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="10" t="s">
         <v>38</v>
       </c>
@@ -2520,7 +2536,7 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2604,7 @@
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2670,7 @@
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
@@ -2720,7 +2736,7 @@
       <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
@@ -2786,7 +2802,7 @@
       <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
@@ -2852,7 +2868,7 @@
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2934,7 @@
       <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="10" t="s">
         <v>56</v>
       </c>
@@ -2984,7 +3000,7 @@
       <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
@@ -3044,13 +3060,15 @@
       </c>
       <c r="T28" s="30"/>
       <c r="U28" s="29"/>
-      <c r="V28" s="33"/>
+      <c r="V28" s="33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
@@ -3110,13 +3128,16 @@
       </c>
       <c r="T29" s="30"/>
       <c r="U29" s="29"/>
-      <c r="V29" s="33"/>
+      <c r="V29" s="33">
+        <f>D41+J41</f>
+        <v>568</v>
+      </c>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="10" t="s">
         <v>23</v>
       </c>
@@ -3176,13 +3197,15 @@
       </c>
       <c r="T30" s="30"/>
       <c r="U30" s="29"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="33" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
@@ -3242,13 +3265,16 @@
       </c>
       <c r="T31" s="30"/>
       <c r="U31" s="29"/>
-      <c r="V31" s="33"/>
+      <c r="V31" s="33">
+        <f>E41+K41</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="10" t="s">
         <v>25</v>
       </c>
@@ -3308,13 +3334,15 @@
       </c>
       <c r="T32" s="30"/>
       <c r="U32" s="29"/>
-      <c r="V32" s="33"/>
+      <c r="V32" s="33" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="10" t="s">
         <v>26</v>
       </c>
@@ -3374,13 +3402,16 @@
       </c>
       <c r="T33" s="30"/>
       <c r="U33" s="29"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="33">
+        <f>F41+L41</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
@@ -3440,13 +3471,15 @@
       </c>
       <c r="T34" s="30"/>
       <c r="U34" s="29"/>
-      <c r="V34" s="33"/>
+      <c r="V34" s="33" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="10" t="s">
         <v>13</v>
       </c>
@@ -3506,13 +3539,16 @@
       </c>
       <c r="T35" s="30"/>
       <c r="U35" s="29"/>
-      <c r="V35" s="33"/>
+      <c r="V35" s="33">
+        <f>B41+N41</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +3614,7 @@
       <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="10" t="s">
         <v>47</v>
       </c>
@@ -3644,7 +3680,7 @@
       <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="10" t="s">
         <v>48</v>
       </c>
@@ -3710,7 +3746,7 @@
       <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="54" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="18" t="s">
@@ -3780,7 +3816,7 @@
       <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="18" t="s">
         <v>50</v>
       </c>
@@ -3848,11 +3884,11 @@
       </c>
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="26">
         <f>SUM(D3:D40)</f>
         <v>13</v>
@@ -3931,11 +3967,11 @@
       </c>
     </row>
     <row r="42" spans="1:25" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
